--- a/1-data/TMP_FEOM_TOC/OneDrive_1_3-21-2024/20240314_Readme_TMP_FEOM_CO_4.xlsx
+++ b/1-data/TMP_FEOM_TOC/OneDrive_1_3-21-2024/20240314_Readme_TMP_FEOM_CO_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olou646\tempest-exp-feom-ConnorSULI\1-data\TMP_FEOM_TOC\OneDrive_1_3-21-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F46E23-8D4F-49D8-ABEA-FAF1199041DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73DD47D-AE37-4C67-ABD9-9A84BE70DE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB0433CF-543D-4FDA-A33B-D7DF0F122BC6}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{FB0433CF-543D-4FDA-A33B-D7DF0F122BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/1-data/TMP_FEOM_TOC/OneDrive_1_3-21-2024/20240314_Readme_TMP_FEOM_CO_4.xlsx
+++ b/1-data/TMP_FEOM_TOC/OneDrive_1_3-21-2024/20240314_Readme_TMP_FEOM_CO_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olou646\tempest-exp-feom-ConnorSULI\1-data\TMP_FEOM_TOC\OneDrive_1_3-21-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73DD47D-AE37-4C67-ABD9-9A84BE70DE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AF65E0-0B0A-4FA7-BBFC-5C48FC40E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{FB0433CF-543D-4FDA-A33B-D7DF0F122BC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{FB0433CF-543D-4FDA-A33B-D7DF0F122BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,43 +128,43 @@
     <t>Blank8</t>
   </si>
   <si>
-    <t>NPOC: 0.0.387</t>
-  </si>
-  <si>
-    <t>NPOC: 0.565</t>
-  </si>
-  <si>
-    <t>NPOC: 2.128</t>
-  </si>
-  <si>
-    <t>NPOC: 0.2988</t>
-  </si>
-  <si>
-    <t>NPOC: 2.027</t>
-  </si>
-  <si>
-    <t>NPOC: 0.3919</t>
-  </si>
-  <si>
-    <t>NPOC: 0.3773</t>
-  </si>
-  <si>
-    <t>NPOC: 2.054</t>
-  </si>
-  <si>
-    <t>NPOC: 0.2066</t>
-  </si>
-  <si>
-    <t>NPOC: 0.1961</t>
-  </si>
-  <si>
-    <t>NPOC: 2.347</t>
-  </si>
-  <si>
-    <t>NPOC: 0.3125</t>
-  </si>
-  <si>
     <t>Dilution correction</t>
+  </si>
+  <si>
+    <t>NPOC: 0.1726</t>
+  </si>
+  <si>
+    <t>NPOC: .9470</t>
+  </si>
+  <si>
+    <t>NPOC: 0.2519</t>
+  </si>
+  <si>
+    <t>NPOC: 0.1744</t>
+  </si>
+  <si>
+    <t>NPOC: 0.9021</t>
+  </si>
+  <si>
+    <t>NPOC: 0.1330</t>
+  </si>
+  <si>
+    <t>NPOC: 0.08729</t>
+  </si>
+  <si>
+    <t>NPOC: 1.045</t>
+  </si>
+  <si>
+    <t>NPOC: 0.1391</t>
+  </si>
+  <si>
+    <t>NPOC: 0.9142</t>
+  </si>
+  <si>
+    <t>NPOC: 0.1679</t>
+  </si>
+  <si>
+    <t>NPOC: 0.09197</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280C1DDF-EA1C-4744-B8A7-879B45D19C4D}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -640,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -671,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -709,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M12" s="2"/>
     </row>
@@ -722,7 +722,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13" s="2"/>
     </row>
@@ -735,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M14" s="2"/>
     </row>
@@ -748,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M17" s="2"/>
     </row>
@@ -793,7 +793,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M18" s="2"/>
     </row>
@@ -806,7 +806,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -825,7 +825,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -844,7 +844,7 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M21" s="2"/>
     </row>
@@ -857,7 +857,7 @@
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M23" s="2"/>
     </row>
